--- a/src/test/resources/NS4S/1900 HKST.xlsx
+++ b/src/test/resources/NS4S/1900 HKST.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="2">
-        <v>3.06</v>
+        <v>4.29</v>
       </c>
       <c r="F2" s="2">
-        <v>5.41</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>2.93</v>
+        <v>4.66</v>
       </c>
       <c r="E3" s="2">
-        <v>5.88</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>4.1500000000000004</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>3.91</v>
+        <v>5.15</v>
       </c>
       <c r="E4" s="2">
-        <v>5.28</v>
+        <v>3.56</v>
       </c>
       <c r="F4" s="2">
-        <v>4.3499999999999996</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,15 +489,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>3.686666666666667</v>
+        <v>4.3966666666666665</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>4.7399999999999993</v>
+        <v>3.9966666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.6366666666666667</v>
+        <v>4.0200000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>5.82</v>
+        <v>3.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="F6" s="2">
-        <v>5.71</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>3.22</v>
+        <v>2.77</v>
       </c>
       <c r="E7" s="2">
-        <v>3.32</v>
+        <v>4.74</v>
       </c>
       <c r="F7" s="2">
-        <v>3.2</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,13 +536,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="E8" s="2">
-        <v>3.73</v>
+        <v>5.24</v>
       </c>
       <c r="F8" s="2">
-        <v>4.47</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,15 +551,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>4.1466666666666674</v>
+        <v>3.2533333333333339</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>3.6533333333333338</v>
+        <v>4.5533333333333337</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.46</v>
+        <v>4.6366666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/1900 HKST.xlsx
+++ b/src/test/resources/NS4S/1900 HKST.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,15 +489,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,13 +536,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,15 +551,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/1900 HKST.xlsx
+++ b/src/test/resources/NS4S/1900 HKST.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D2" sqref="D2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,15 +489,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
